--- a/biology/Médecine/Benjamin-Joseph_Logre/Benjamin-Joseph_Logre.xlsx
+++ b/biology/Médecine/Benjamin-Joseph_Logre/Benjamin-Joseph_Logre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin-Joseph Logre, né le 21 février 1883 à Lisieux et mort le 25 mars 1963 à Antibes, est un médecin et psychiatre français.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élève d'Ernest Dupré à qui il consacrera une étude, il obtient son doctorat en médecine en 1913 avec la thèse Les Œdèmes infectieux du poumon[1],[2] puis devient chef de clinique psychiatrique à la faculté de médecine de Paris. Collaborateur des quotidiens Le Temps et Le Monde, il est célèbre pour avoir été le médecin de Raymond Roussel[3].
-En 1927, il est le psychiatre qui diagnostique des « troubles psychiques polymorphes. Dépression, tristesse, inquiétude. Phases d'anxiété avec peur… » chez Léona Delcourt (la Nadja d'André Breton) qu'il envoie à l'hôpital Sainte-Anne. Le médecin-chef de Sainte-Anne confirme alors son diagnostic[4].
-Jacques Lacan en 1933, lors du procès des sœurs Papin qui a pris une tournure politique, les partisans de l'ordre espérant une condamnation à mort[5] et l'assassinat de la patronne des deux domestiques étant vu comme l'expression d'une révolte de classe[6], intervient[7] pour appuyer son collègue le Dr Benjamin-Joseph Logre et les journalistes Jean et Jérôme Tharaud dans leur contestation des trois experts[8] qui ont conclu à la responsabilité pénale.
-En 1936, il est le premier à décrire le syndrome d'Elpénor[9]. Dans un article publié dans Le Monde du 1-3 mai 1948, il rapporte le cas de Paul Deschanel qui avait absorbé une forte dose de barbituriques et dont les symptômes illustrent le syndrome d'Elpénor[10],[11].
-Il reçoit en 1947 le prix Jules-Janin de l'Académie française pour son étude L'anxiété de Lucrèce[12]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élève d'Ernest Dupré à qui il consacrera une étude, il obtient son doctorat en médecine en 1913 avec la thèse Les Œdèmes infectieux du poumon, puis devient chef de clinique psychiatrique à la faculté de médecine de Paris. Collaborateur des quotidiens Le Temps et Le Monde, il est célèbre pour avoir été le médecin de Raymond Roussel.
+En 1927, il est le psychiatre qui diagnostique des « troubles psychiques polymorphes. Dépression, tristesse, inquiétude. Phases d'anxiété avec peur… » chez Léona Delcourt (la Nadja d'André Breton) qu'il envoie à l'hôpital Sainte-Anne. Le médecin-chef de Sainte-Anne confirme alors son diagnostic.
+Jacques Lacan en 1933, lors du procès des sœurs Papin qui a pris une tournure politique, les partisans de l'ordre espérant une condamnation à mort et l'assassinat de la patronne des deux domestiques étant vu comme l'expression d'une révolte de classe, intervient pour appuyer son collègue le Dr Benjamin-Joseph Logre et les journalistes Jean et Jérôme Tharaud dans leur contestation des trois experts qui ont conclu à la responsabilité pénale.
+En 1936, il est le premier à décrire le syndrome d'Elpénor. Dans un article publié dans Le Monde du 1-3 mai 1948, il rapporte le cas de Paul Deschanel qui avait absorbé une forte dose de barbituriques et dont les symptômes illustrent le syndrome d'Elpénor,.
+Il reçoit en 1947 le prix Jules-Janin de l'Académie française pour son étude L'anxiété de Lucrèce
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Œdèmes infectieux du poumon (1913)
 Les anxieux, étude clinique (1917)
